--- a/Tab_7a_Daten.xlsx
+++ b/Tab_7a_Daten.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -4611,6 +4611,2286 @@
         <v>21.1</v>
       </c>
     </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D001</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I53" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="U53" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="V53" s="7">
+        <v>19.8</v>
+      </c>
+      <c r="W53" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="X53" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>16</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>14</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>13.1</v>
+      </c>
+      <c r="AC53" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="AD53" s="7">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D002</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_F</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I54" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" s="7">
+        <v>18.4</v>
+      </c>
+      <c r="U54" s="7">
+        <v>19.1</v>
+      </c>
+      <c r="V54" s="7">
+        <v>20.3</v>
+      </c>
+      <c r="W54" s="7">
+        <v>20.1</v>
+      </c>
+      <c r="X54" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>16.9</v>
+      </c>
+      <c r="AA54" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="AB54" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="AC54" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="AD54" s="7">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D003</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_M</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G55" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I55" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T55" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="U55" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="V55" s="7">
+        <v>19.1</v>
+      </c>
+      <c r="W55" s="7">
+        <v>18.9</v>
+      </c>
+      <c r="X55" s="7">
+        <v>18.8</v>
+      </c>
+      <c r="Y55" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>12.1</v>
+      </c>
+      <c r="AC55" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="AD55" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D004</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I56" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T56" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="U56" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="V56" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="W56" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="X56" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>8.3</v>
+      </c>
+      <c r="AB56" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="AC56" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="AD56" s="7">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D005</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_F</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G57" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T57" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="U57" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="V57" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="W57" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="X57" s="7">
+        <v>13.3</v>
+      </c>
+      <c r="Y57" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AA57" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>8.2</v>
+      </c>
+      <c r="AC57" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="AD57" s="7">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01_D006</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_M</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G58" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I58" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T58" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="U58" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="V58" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="W58" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="X58" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="Y58" s="7">
+        <v>10.2</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="AA58" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="AB58" s="7">
+        <v>7</v>
+      </c>
+      <c r="AC58" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="AD58" s="7">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D007</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F59" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I59" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T59" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="U59" s="7">
+        <v>8.8</v>
+      </c>
+      <c r="V59" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="W59" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="X59" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="Y59" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="AA59" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="AB59" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="AC59" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="AD59" s="7">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D008</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_F</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G60" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U60" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="V60" s="7">
+        <v>10.2</v>
+      </c>
+      <c r="W60" s="7">
+        <v>9.8</v>
+      </c>
+      <c r="X60" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y60" s="7">
+        <v>8.2</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="AA60" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="AB60" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="AC60" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="AD60" s="7">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D009</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_M</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F61" s="4" t="inlineStr">
+        <is>
+          <t>A_EU</t>
+        </is>
+      </c>
+      <c r="G61" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I61" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U61" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="V61" s="7">
+        <v>9.7</v>
+      </c>
+      <c r="W61" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="X61" s="7">
+        <v>8.8</v>
+      </c>
+      <c r="Y61" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="AA61" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="AB61" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="AC61" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="AD61" s="7">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D010</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I62" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T62" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="U62" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="V62" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="W62" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="X62" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="7">
+        <v>4.4</v>
+      </c>
+      <c r="Z62" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AA62" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="AB62" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AC62" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="AD62" s="7">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D011</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_F</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F63" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G63" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U63" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="V63" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="W63" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="X63" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="Y63" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="Z63" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA63" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="AB63" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AC63" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AD63" s="7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01_D012</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01_Ib01_I02_Z01</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>K_SEX</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>A_SEX_M</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>K_AREA</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>A_GERMANY</t>
+        </is>
+      </c>
+      <c r="G64" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U64" s="7">
+        <v>5</v>
+      </c>
+      <c r="V64" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="W64" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="X64" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="Y64" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="Z64" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="AA64" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="AB64" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC64" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="AD64" s="7">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01_Z01_D001</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G65" s="4" t="inlineStr">
+        <is>
+          <t>E_KGPHA</t>
+        </is>
+      </c>
+      <c r="I65" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>115.3</v>
+      </c>
+      <c r="K65" s="7">
+        <v>101.7</v>
+      </c>
+      <c r="L65" s="7">
+        <v>105.8</v>
+      </c>
+      <c r="M65" s="7">
+        <v>105.4</v>
+      </c>
+      <c r="N65" s="7">
+        <v>97.3</v>
+      </c>
+      <c r="O65" s="7">
+        <v>102.4</v>
+      </c>
+      <c r="P65" s="7">
+        <v>105.7</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>100.4</v>
+      </c>
+      <c r="R65" s="7">
+        <v>103.2</v>
+      </c>
+      <c r="S65" s="7">
+        <v>83.7</v>
+      </c>
+      <c r="T65" s="7">
+        <v>90.3</v>
+      </c>
+      <c r="U65" s="7">
+        <v>106.2</v>
+      </c>
+      <c r="V65" s="7">
+        <v>91</v>
+      </c>
+      <c r="W65" s="7">
+        <v>93.6</v>
+      </c>
+      <c r="X65" s="7">
+        <v>84.8</v>
+      </c>
+      <c r="Y65" s="7">
+        <v>102.1</v>
+      </c>
+      <c r="Z65" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="AA65" s="7">
+        <v>90</v>
+      </c>
+      <c r="AB65" s="7">
+        <v>87.9</v>
+      </c>
+      <c r="AC65" s="7">
+        <v>78.7</v>
+      </c>
+      <c r="AD65" s="7">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01_Z02_D002</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01_I01_Z02</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G66" s="4" t="inlineStr">
+        <is>
+          <t>E_KGPHA</t>
+        </is>
+      </c>
+      <c r="I66" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" s="7">
+        <v>108.3</v>
+      </c>
+      <c r="K66" s="7">
+        <v>107.8</v>
+      </c>
+      <c r="L66" s="7">
+        <v>105.1</v>
+      </c>
+      <c r="M66" s="7">
+        <v>102.5</v>
+      </c>
+      <c r="N66" s="7">
+        <v>103.3</v>
+      </c>
+      <c r="O66" s="7">
+        <v>102.2</v>
+      </c>
+      <c r="P66" s="7">
+        <v>101.8</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>99.1</v>
+      </c>
+      <c r="R66" s="7">
+        <v>96.6</v>
+      </c>
+      <c r="S66" s="7">
+        <v>96.8</v>
+      </c>
+      <c r="T66" s="7">
+        <v>94.9</v>
+      </c>
+      <c r="U66" s="7">
+        <v>93</v>
+      </c>
+      <c r="V66" s="7">
+        <v>93.2</v>
+      </c>
+      <c r="W66" s="7">
+        <v>95.6</v>
+      </c>
+      <c r="X66" s="7">
+        <v>94</v>
+      </c>
+      <c r="Y66" s="7">
+        <v>93.8</v>
+      </c>
+      <c r="Z66" s="7">
+        <v>92.7</v>
+      </c>
+      <c r="AA66" s="7">
+        <v>91.5</v>
+      </c>
+      <c r="AB66" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D001</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F67" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G67" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I67" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="M67" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="O67" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="T67" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="V67" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="W67" s="7">
+        <v>6</v>
+      </c>
+      <c r="X67" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="Y67" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="Z67" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="AA67" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="AB67" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="AC67" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="AD67" s="7">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D002</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_BW</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="M68" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="O68" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="T68" s="7">
+        <v>7</v>
+      </c>
+      <c r="W68" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="Z68" s="7">
+        <v>9.3</v>
+      </c>
+      <c r="AD68" s="7">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D003</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_BY</t>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F69" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G69" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I69" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="M69" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="O69" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="T69" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="W69" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="Z69" s="7">
+        <v>8.3</v>
+      </c>
+      <c r="AD69" s="7">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D004</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_BE</t>
+        </is>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I70" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T70" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="W70" s="7">
+        <v>15</v>
+      </c>
+      <c r="Z70" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="AD70" s="7">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D005</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_BB</t>
+        </is>
+      </c>
+      <c r="E71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G71" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="M71" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="O71" s="7">
+        <v>9.8</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="T71" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="W71" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="Z71" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="AD71" s="7">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D006</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_HB</t>
+        </is>
+      </c>
+      <c r="E72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G72" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I72" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T72" s="7">
+        <v>9.8</v>
+      </c>
+      <c r="W72" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="Z72" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="AD72" s="7">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D007</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_HH</t>
+        </is>
+      </c>
+      <c r="E73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G73" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T73" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="W73" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="Z73" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="AD73" s="7">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D008</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_HE</t>
+        </is>
+      </c>
+      <c r="E74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G74" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I74" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="M74" s="7">
+        <v>7</v>
+      </c>
+      <c r="O74" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="T74" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="W74" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="Z74" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="AD74" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D009</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_MV</t>
+        </is>
+      </c>
+      <c r="E75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F75" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G75" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I75" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="M75" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="O75" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>8.8</v>
+      </c>
+      <c r="T75" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="W75" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z75" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="AD75" s="7">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D010</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_NI</t>
+        </is>
+      </c>
+      <c r="E76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I76" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="M76" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="O76" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="T76" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="W76" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="Z76" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AD76" s="7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D011</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_NW</t>
+        </is>
+      </c>
+      <c r="E77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F77" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G77" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I77" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M77" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="O77" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="T77" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="W77" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="Z77" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="AD77" s="7">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D012</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_RP</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G78" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I78" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="M78" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="O78" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="T78" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="W78" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="Z78" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="AD78" s="7">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D013</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_SL</t>
+        </is>
+      </c>
+      <c r="E79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F79" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G79" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I79" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="M79" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="O79" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="T79" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="W79" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="Z79" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="AD79" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D014</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_SN</t>
+        </is>
+      </c>
+      <c r="E80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G80" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="M80" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="O80" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="T80" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="W80" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="Z80" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="AD80" s="7">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D015</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_ST</t>
+        </is>
+      </c>
+      <c r="E81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F81" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G81" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="M81" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="O81" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="T81" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="W81" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="Z81" s="7">
+        <v>5</v>
+      </c>
+      <c r="AD81" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D016</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_SH</t>
+        </is>
+      </c>
+      <c r="E82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G82" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I82" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="M82" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="O82" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="T82" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="W82" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="Z82" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD82" s="7">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01_D017</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>K_LAENDER</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>A_LAENDER_TH</t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F83" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G83" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I83" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="M83" s="7">
+        <v>3</v>
+      </c>
+      <c r="O83" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="T83" s="7">
+        <v>4.4</v>
+      </c>
+      <c r="W83" s="7">
+        <v>4.4</v>
+      </c>
+      <c r="Z83" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="AD83" s="7">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z02_D001</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02_I01_Z02</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G84" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="L84" s="7">
+        <v>4.1</v>
+      </c>
+      <c r="M84" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="N84" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="O84" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="P84" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="R84" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="S84" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="T84" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="U84" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="V84" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="W84" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="X84" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="Y84" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="Z84" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="AA84" s="7">
+        <v>8.2</v>
+      </c>
+      <c r="AB84" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="AC84" s="7">
+        <v>9.7</v>
+      </c>
+      <c r="AD84" s="7">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B02_P01_Ib01_I01_Z01_D0019</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B02_P01_Ib01_I01_Z01</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F85" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G85" s="4" t="inlineStr">
+        <is>
+          <t>E_PRZNT</t>
+        </is>
+      </c>
+      <c r="I85" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="7">
+        <v>16.71</v>
+      </c>
+      <c r="AB85" s="7">
+        <v>18.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
